--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_168.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_168.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:min', 'G:min/A#', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1064102564102564</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:min', 'D']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.28, 8.7)]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(95.904784, 104.577437)]</t>
+          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:16.179070', '0:00:21.844739')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_143</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1291208791208791</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2125874125874126</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj/E', 'F:maj']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.635324, 5.81136)]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(208.74, 211.74)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:00.800000', '0:00:03.520000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:46.740000', '0:00:58.460000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
-        </is>
+          <t>jaah_43</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_87</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07059800664451826</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B']]</t>
+          <t>[['Eb', 'Eb', 'Ab']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(69.86, 73.74)]</t>
+          <t>[['A', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(58.625147, 64.604285)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:34', '0:01:42.970000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:59.508331', '0:01:04.685555')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_14</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1558441558441558</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04807692307692308</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(64.08, 73.88)]</t>
+          <t>[['F:maj', 'C:7/A#', 'F:maj/A'], ['F:min/C', 'C:7', 'F:min'], ['F:min/G#', 'A#:min', 'F:min/G#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(66.93, 74.44)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:04:13.840000', '0:04:17.600000'), ('0:00:25.800000', '0:00:29.460000'), ('0:00:09.600000', '0:00:13.300000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:14.900000', '0:01:26.120000'), ('0:00:43.680000', '0:00:45.800000'), ('0:01:37.760000', '0:01:49.380000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7/F', 'F:min']]</t>
-        </is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1715686274509804</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(14.92, 20.76)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(17.78, 25.4)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:25.015959', '0:00:36.625937')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(107.9, 109.3)]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(34.3, 49.84)]</t>
+          <t>[('0:01:03.100000', '0:01:06.700000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:22.820000', '0:00:26.720000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E', 'G#']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'B:maj/D#']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(14.032548, 17.97994)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(66.6, 73.92)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:16.840000', '0:00:19.460000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4074074074074074</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_164</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3642857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>[['G:min', 'A:7/C#', 'D:maj'], ['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(31.46941, 127.006105)]</t>
+          <t>[['C:min', 'D:7', 'G'], ['Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.15, 6.536)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:12.980000', '0:00:18.400000'), ('0:01:03.100000', '0:01:04.500000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:14.967000', '0:01:24.194000'), ('0:00:48.001000', '0:00:54.307000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb:7', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj'], ['G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(36.82, 47.63), (22.37, 33.31)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(18.8, 21.34), (20.74, 23.2)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4017857142857143</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(58.32, 59.68), (56.72, 58.88)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.64, 10.36), (57.48, 64.58)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:47.800000', '0:01:38.980000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2259615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(55.18, 62.06)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(10.619, 16.742)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_208</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1806020066889632</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(50.16, 52.82)]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(148.857891, 153.176802)]</t>
+          <t>[('0:00:55.580000', '0:01:06.200000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:14.879000', '0:01:27.795000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2125874125874126</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.36, 3.02)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(53.06, 65.64)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B', 'E/5', 'B', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'D']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(58.625147, 67.541609)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(55.860352, 62.11813)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3882352941176471</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(154.76, 159.84)]</t>
+          <t>[['D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(25.015959, 36.625937)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:03:12.882000', '0:04:13.747000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:01.922018', '0:00:25.350952')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_153</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_3</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2767857142857143</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj'], ['G#:7', 'C#:maj', 'C#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(60.12, 61.36), (60.68, 63.42)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.48, 8.48), (25.9, 35.06)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
